--- a/results/mp/tinybert/corona/confidence/84/stop-words-topk-masking-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/84/stop-words-topk-masking-0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="94">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,9 +43,6 @@
     <t>arrested</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
@@ -58,78 +55,69 @@
     <t>warning</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>poor</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
     <t>forced</t>
   </si>
   <si>
+    <t>fear</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
     <t>recession</t>
   </si>
   <si>
-    <t>fear</t>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>anxiety</t>
   </si>
   <si>
     <t>collapse</t>
   </si>
   <si>
-    <t>shit</t>
+    <t>fuck</t>
   </si>
   <si>
     <t>shame</t>
   </si>
   <si>
-    <t>anxiety</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>die</t>
+    <t>emergency</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>emergency</t>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>fears</t>
   </si>
   <si>
     <t>shortage</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>panic</t>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>drop</t>
   </si>
   <si>
     <t>risk</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>isolation</t>
+    <t>empty</t>
   </si>
   <si>
     <t>fight</t>
   </si>
   <si>
-    <t>empty</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
@@ -139,142 +127,139 @@
     <t>negative</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>best</t>
+    <t>great</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
-    <t>great</t>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>support</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>safe</t>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>ensure</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>credit</t>
   </si>
   <si>
     <t>healthy</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>relief</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
     <t>energy</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>join</t>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>sure</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
-    <t>please</t>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>protect</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
     <t>alert</t>
   </si>
   <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>key</t>
+    <t>give</t>
+  </si>
+  <si>
+    <t>health</t>
   </si>
   <si>
     <t>essential</t>
@@ -289,19 +274,22 @@
     <t>store</t>
   </si>
   <si>
+    <t>home</t>
+  </si>
+  <si>
     <t>grocery</t>
   </si>
   <si>
+    <t>san</t>
+  </si>
+  <si>
     <t>consumer</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>supermarket</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>food</t>
   </si>
   <si>
     <t>co</t>
@@ -673,10 +661,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="J1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -755,16 +743,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L3">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="M3">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -776,7 +764,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -784,13 +772,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.9705882352941176</v>
       </c>
       <c r="C4">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -802,19 +790,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="K4">
-        <v>0.9565217391304348</v>
+        <v>0.9661016949152542</v>
       </c>
       <c r="L4">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="M4">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -834,13 +822,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9411764705882353</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C5">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D5">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -852,19 +840,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K5">
-        <v>0.9393939393939394</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L5">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="M5">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -884,13 +872,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8055555555555556</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C6">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D6">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -902,19 +890,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="K6">
-        <v>0.9322033898305084</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L6">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="M6">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -926,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -934,13 +922,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7692307692307693</v>
+        <v>0.76</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -955,16 +943,16 @@
         <v>6</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K7">
-        <v>0.8611111111111112</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L7">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="M7">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -976,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -984,13 +972,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.72</v>
+        <v>0.6917808219178082</v>
       </c>
       <c r="C8">
-        <v>18</v>
+        <v>202</v>
       </c>
       <c r="D8">
-        <v>18</v>
+        <v>202</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1002,19 +990,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K8">
-        <v>0.8482142857142857</v>
+        <v>0.875</v>
       </c>
       <c r="L8">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="M8">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1026,7 +1014,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1034,13 +1022,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7</v>
+        <v>0.65</v>
       </c>
       <c r="C9">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1052,31 +1040,31 @@
         <v>0</v>
       </c>
       <c r="H9">
+        <v>7</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K9">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="L9">
+        <v>30</v>
+      </c>
+      <c r="M9">
+        <v>30</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
         <v>6</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K9">
-        <v>0.8297872340425532</v>
-      </c>
-      <c r="L9">
-        <v>39</v>
-      </c>
-      <c r="M9">
-        <v>39</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1084,13 +1072,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6952054794520548</v>
+        <v>0.5862068965517241</v>
       </c>
       <c r="C10">
-        <v>203</v>
+        <v>17</v>
       </c>
       <c r="D10">
-        <v>203</v>
+        <v>17</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1102,10 +1090,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K10">
         <v>0.8292682926829268</v>
@@ -1134,13 +1122,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6086956521739131</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="C11">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D11">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1152,19 +1140,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="K11">
-        <v>0.828125</v>
+        <v>0.8046875</v>
       </c>
       <c r="L11">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M11">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1176,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1184,37 +1172,37 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5862068965517241</v>
+        <v>0.5526315789473685</v>
       </c>
       <c r="C12">
+        <v>21</v>
+      </c>
+      <c r="D12">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <v>17</v>
       </c>
-      <c r="D12">
-        <v>17</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>12</v>
-      </c>
       <c r="J12" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="K12">
-        <v>0.8275862068965517</v>
+        <v>0.8</v>
       </c>
       <c r="L12">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="M12">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1226,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1234,13 +1222,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5806451612903226</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="C13">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D13">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1252,19 +1240,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="K13">
-        <v>0.7916666666666666</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="L13">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="M13">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1276,7 +1264,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1284,13 +1272,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5384615384615384</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="C14">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D14">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1302,19 +1290,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="K14">
-        <v>0.7894736842105263</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L14">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="M14">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1326,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1334,37 +1322,37 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5333333333333333</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="C15">
+        <v>15</v>
+      </c>
+      <c r="D15">
+        <v>15</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15">
         <v>16</v>
       </c>
-      <c r="D15">
-        <v>16</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>14</v>
-      </c>
       <c r="J15" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="K15">
-        <v>0.7777777777777778</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="L15">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="M15">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1376,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1384,13 +1372,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4871794871794872</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="C16">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D16">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1402,19 +1390,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="K16">
-        <v>0.7727272727272727</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="L16">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="M16">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1426,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1434,13 +1422,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4594594594594595</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="C17">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D17">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1452,19 +1440,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K17">
-        <v>0.7647058823529411</v>
+        <v>0.746031746031746</v>
       </c>
       <c r="L17">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="M17">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1476,7 +1464,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1484,7 +1472,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4516129032258064</v>
+        <v>0.3783783783783784</v>
       </c>
       <c r="C18">
         <v>14</v>
@@ -1502,19 +1490,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="K18">
-        <v>0.7605633802816901</v>
+        <v>0.7452830188679245</v>
       </c>
       <c r="L18">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="M18">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1526,7 +1514,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1534,13 +1522,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4473684210526316</v>
+        <v>0.3733333333333334</v>
       </c>
       <c r="C19">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D19">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1552,19 +1540,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K19">
-        <v>0.75</v>
+        <v>0.723404255319149</v>
       </c>
       <c r="L19">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="M19">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1576,7 +1564,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1584,13 +1572,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3783783783783784</v>
+        <v>0.3624161073825503</v>
       </c>
       <c r="C20">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="D20">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1602,19 +1590,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="K20">
-        <v>0.75</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L20">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M20">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1626,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1634,13 +1622,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3624161073825503</v>
+        <v>0.3507751937984496</v>
       </c>
       <c r="C21">
-        <v>54</v>
+        <v>181</v>
       </c>
       <c r="D21">
-        <v>54</v>
+        <v>181</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1652,19 +1640,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>95</v>
+        <v>335</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="K21">
-        <v>0.7407407407407407</v>
+        <v>0.69375</v>
       </c>
       <c r="L21">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="M21">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1676,7 +1664,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>7</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1684,13 +1672,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3611111111111111</v>
+        <v>0.3137254901960784</v>
       </c>
       <c r="C22">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D22">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1702,19 +1690,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K22">
-        <v>0.7222222222222222</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L22">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M22">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1726,7 +1714,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1734,13 +1722,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.358974358974359</v>
+        <v>0.3050847457627119</v>
       </c>
       <c r="C23">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D23">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1752,19 +1740,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K23">
-        <v>0.7075471698113207</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="L23">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="M23">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1776,7 +1764,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1784,13 +1772,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3466666666666667</v>
+        <v>0.3015873015873016</v>
       </c>
       <c r="C24">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="D24">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1802,19 +1790,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>49</v>
+        <v>132</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K24">
-        <v>0.70625</v>
+        <v>0.625</v>
       </c>
       <c r="L24">
-        <v>113</v>
+        <v>15</v>
       </c>
       <c r="M24">
-        <v>113</v>
+        <v>15</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1826,7 +1814,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>47</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1834,13 +1822,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3389830508474576</v>
+        <v>0.2542372881355932</v>
       </c>
       <c r="C25">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D25">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1852,19 +1840,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K25">
-        <v>0.7037037037037037</v>
+        <v>0.5900783289817232</v>
       </c>
       <c r="L25">
-        <v>19</v>
+        <v>226</v>
       </c>
       <c r="M25">
-        <v>19</v>
+        <v>226</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1876,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>8</v>
+        <v>157</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1884,7 +1872,7 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3333333333333333</v>
+        <v>0.2207792207792208</v>
       </c>
       <c r="C26">
         <v>17</v>
@@ -1902,19 +1890,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K26">
-        <v>0.6808510638297872</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L26">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="M26">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1926,7 +1914,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1934,13 +1922,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3197674418604651</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C27">
-        <v>165</v>
+        <v>15</v>
       </c>
       <c r="D27">
-        <v>165</v>
+        <v>15</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1952,19 +1940,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>351</v>
+        <v>75</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="K27">
-        <v>0.6666666666666666</v>
+        <v>0.5813953488372093</v>
       </c>
       <c r="L27">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="M27">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1976,7 +1964,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1984,13 +1972,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2987012987012987</v>
+        <v>0.1625</v>
       </c>
       <c r="C28">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D28">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2002,19 +1990,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="K28">
-        <v>0.62</v>
+        <v>0.5794117647058824</v>
       </c>
       <c r="L28">
-        <v>31</v>
+        <v>197</v>
       </c>
       <c r="M28">
-        <v>31</v>
+        <v>197</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2026,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>19</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2034,13 +2022,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.2804232804232804</v>
+        <v>0.1547619047619048</v>
       </c>
       <c r="C29">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="D29">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2052,19 +2040,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>136</v>
+        <v>213</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K29">
-        <v>0.6135770234986945</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="L29">
-        <v>235</v>
+        <v>13</v>
       </c>
       <c r="M29">
-        <v>235</v>
+        <v>13</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2076,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>148</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2084,13 +2072,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.2745098039215687</v>
+        <v>0.1045576407506702</v>
       </c>
       <c r="C30">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D30">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2102,427 +2090,331 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>37</v>
+        <v>334</v>
       </c>
       <c r="J30" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K30">
+        <v>0.5588235294117647</v>
+      </c>
+      <c r="L30">
+        <v>19</v>
+      </c>
+      <c r="M30">
+        <v>19</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="J31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K31">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="L31">
+        <v>15</v>
+      </c>
+      <c r="M31">
+        <v>15</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="J32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K32">
+        <v>0.54</v>
+      </c>
+      <c r="L32">
+        <v>27</v>
+      </c>
+      <c r="M32">
+        <v>27</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="10:17">
+      <c r="J33" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K33">
+        <v>0.5393258426966292</v>
+      </c>
+      <c r="L33">
+        <v>48</v>
+      </c>
+      <c r="M33">
+        <v>48</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17">
+      <c r="J34" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K30">
-        <v>0.5735294117647058</v>
-      </c>
-      <c r="L30">
-        <v>195</v>
-      </c>
-      <c r="M30">
-        <v>195</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="A31" s="1" t="s">
+      <c r="K34">
+        <v>0.5277777777777778</v>
+      </c>
+      <c r="L34">
+        <v>19</v>
+      </c>
+      <c r="M34">
+        <v>19</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17">
+      <c r="J35" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K35">
+        <v>0.5050847457627119</v>
+      </c>
+      <c r="L35">
+        <v>149</v>
+      </c>
+      <c r="M35">
+        <v>149</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17">
+      <c r="J36" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K36">
+        <v>0.4560669456066946</v>
+      </c>
+      <c r="L36">
+        <v>109</v>
+      </c>
+      <c r="M36">
+        <v>109</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K37">
+        <v>0.45</v>
+      </c>
+      <c r="L37">
+        <v>18</v>
+      </c>
+      <c r="M37">
+        <v>18</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="10:17">
+      <c r="J38" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K38">
+        <v>0.4461538461538462</v>
+      </c>
+      <c r="L38">
+        <v>29</v>
+      </c>
+      <c r="M38">
+        <v>29</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
         <v>36</v>
       </c>
-      <c r="B31">
-        <v>0.2</v>
-      </c>
-      <c r="C31">
-        <v>16</v>
-      </c>
-      <c r="D31">
-        <v>16</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>64</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K31">
-        <v>0.5393258426966292</v>
-      </c>
-      <c r="L31">
-        <v>48</v>
-      </c>
-      <c r="M31">
-        <v>48</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="A32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32">
-        <v>0.1777777777777778</v>
-      </c>
-      <c r="C32">
-        <v>16</v>
-      </c>
-      <c r="D32">
-        <v>16</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32">
+    </row>
+    <row r="39" spans="10:17">
+      <c r="J39" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K39">
+        <v>0.4375</v>
+      </c>
+      <c r="L39">
+        <v>28</v>
+      </c>
+      <c r="M39">
+        <v>28</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="J32" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K32">
-        <v>0.5277777777777778</v>
-      </c>
-      <c r="L32">
-        <v>19</v>
-      </c>
-      <c r="M32">
-        <v>19</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
+      <c r="K40">
+        <v>0.4358974358974359</v>
+      </c>
+      <c r="L40">
+        <v>34</v>
+      </c>
+      <c r="M40">
+        <v>34</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K41">
+        <v>0.425</v>
+      </c>
+      <c r="L41">
         <v>17</v>
       </c>
-    </row>
-    <row r="33" spans="1:17">
-      <c r="A33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33">
-        <v>0.1746031746031746</v>
-      </c>
-      <c r="C33">
-        <v>44</v>
-      </c>
-      <c r="D33">
-        <v>44</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>208</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K33">
-        <v>0.525</v>
-      </c>
-      <c r="L33">
-        <v>21</v>
-      </c>
-      <c r="M33">
-        <v>21</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17">
-      <c r="A34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34">
-        <v>0.1018766756032172</v>
-      </c>
-      <c r="C34">
-        <v>38</v>
-      </c>
-      <c r="D34">
-        <v>38</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>335</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K34">
-        <v>0.4915254237288136</v>
-      </c>
-      <c r="L34">
-        <v>145</v>
-      </c>
-      <c r="M34">
-        <v>145</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17">
-      <c r="J35" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K35">
-        <v>0.4883720930232558</v>
-      </c>
-      <c r="L35">
-        <v>21</v>
-      </c>
-      <c r="M35">
-        <v>21</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17">
-      <c r="J36" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K36">
-        <v>0.4615384615384616</v>
-      </c>
-      <c r="L36">
-        <v>36</v>
-      </c>
-      <c r="M36">
-        <v>36</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="J37" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K37">
-        <v>0.4476987447698745</v>
-      </c>
-      <c r="L37">
-        <v>107</v>
-      </c>
-      <c r="M37">
-        <v>107</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
-      <c r="J38" s="1" t="s">
+      <c r="M41">
+        <v>17</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="K38">
-        <v>0.4222222222222222</v>
-      </c>
-      <c r="L38">
-        <v>19</v>
-      </c>
-      <c r="M38">
-        <v>19</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
-      <c r="J39" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K39">
-        <v>0.4193548387096774</v>
-      </c>
-      <c r="L39">
-        <v>13</v>
-      </c>
-      <c r="M39">
-        <v>13</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17">
-      <c r="J40" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K40">
-        <v>0.410958904109589</v>
-      </c>
-      <c r="L40">
-        <v>30</v>
-      </c>
-      <c r="M40">
-        <v>30</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
-      <c r="J41" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K41">
-        <v>0.4</v>
-      </c>
-      <c r="L41">
-        <v>14</v>
-      </c>
-      <c r="M41">
-        <v>14</v>
-      </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
-      <c r="J42" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="K42">
         <v>0.4</v>
       </c>
       <c r="L42">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="M42">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2534,151 +2426,151 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K43">
+        <v>0.3972602739726027</v>
+      </c>
+      <c r="L43">
+        <v>29</v>
+      </c>
+      <c r="M43">
+        <v>29</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="10:17">
+      <c r="J44" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K44">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="L44">
+        <v>15</v>
+      </c>
+      <c r="M44">
+        <v>15</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="10:17">
+      <c r="J45" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K45">
+        <v>0.3095238095238095</v>
+      </c>
+      <c r="L45">
+        <v>13</v>
+      </c>
+      <c r="M45">
+        <v>13</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="10:17">
+      <c r="J46" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K46">
+        <v>0.2131147540983606</v>
+      </c>
+      <c r="L46">
+        <v>13</v>
+      </c>
+      <c r="M46">
+        <v>13</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="10:17">
+      <c r="J47" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="K43">
-        <v>0.3823529411764706</v>
-      </c>
-      <c r="L43">
-        <v>13</v>
-      </c>
-      <c r="M43">
-        <v>13</v>
-      </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q43">
+      <c r="K47">
+        <v>0.1538461538461539</v>
+      </c>
+      <c r="L47">
+        <v>20</v>
+      </c>
+      <c r="M47">
         <v>21</v>
       </c>
-    </row>
-    <row r="44" spans="1:17">
-      <c r="J44" s="1" t="s">
+      <c r="N47">
+        <v>0.95</v>
+      </c>
+      <c r="O47">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P47" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q47">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="48" spans="10:17">
+      <c r="J48" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="K44">
-        <v>0.3692307692307693</v>
-      </c>
-      <c r="L44">
-        <v>24</v>
-      </c>
-      <c r="M44">
-        <v>24</v>
-      </c>
-      <c r="N44">
-        <v>1</v>
-      </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17">
-      <c r="J45" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K45">
-        <v>0.3571428571428572</v>
-      </c>
-      <c r="L45">
-        <v>15</v>
-      </c>
-      <c r="M45">
-        <v>15</v>
-      </c>
-      <c r="N45">
-        <v>1</v>
-      </c>
-      <c r="O45">
-        <v>0</v>
-      </c>
-      <c r="P45" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q45">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17">
-      <c r="J46" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K46">
-        <v>0.34375</v>
-      </c>
-      <c r="L46">
-        <v>22</v>
-      </c>
-      <c r="M46">
-        <v>22</v>
-      </c>
-      <c r="N46">
-        <v>1</v>
-      </c>
-      <c r="O46">
-        <v>0</v>
-      </c>
-      <c r="P46" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q46">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17">
-      <c r="J47" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K47">
-        <v>0.3428571428571429</v>
-      </c>
-      <c r="L47">
-        <v>24</v>
-      </c>
-      <c r="M47">
-        <v>24</v>
-      </c>
-      <c r="N47">
-        <v>1</v>
-      </c>
-      <c r="O47">
-        <v>0</v>
-      </c>
-      <c r="P47" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q47">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17">
-      <c r="J48" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="K48">
-        <v>0.3404255319148936</v>
+        <v>0.1102362204724409</v>
       </c>
       <c r="L48">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M48">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2690,21 +2582,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>31</v>
+        <v>113</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K49">
-        <v>0.1181102362204724</v>
+        <v>0.1004784688995215</v>
       </c>
       <c r="L49">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="M49">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2716,21 +2608,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>112</v>
+        <v>376</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K50">
-        <v>0.1052631578947368</v>
+        <v>0.08413461538461539</v>
       </c>
       <c r="L50">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="M50">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2742,21 +2634,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>374</v>
+        <v>381</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="K51">
-        <v>0.09615384615384616</v>
+        <v>0.06823266219239374</v>
       </c>
       <c r="L51">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="M51">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2768,21 +2660,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>376</v>
+        <v>833</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="K52">
-        <v>0.06040268456375839</v>
+        <v>0.06511627906976744</v>
       </c>
       <c r="L52">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="M52">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2794,21 +2686,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>840</v>
+        <v>201</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K53">
-        <v>0.04994450610432852</v>
+        <v>0.048834628190899</v>
       </c>
       <c r="L53">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M53">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2820,21 +2712,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>856</v>
+        <v>857</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K54">
-        <v>0.03230769230769231</v>
+        <v>0.0308641975308642</v>
       </c>
       <c r="L54">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M54">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2846,21 +2738,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>629</v>
+        <v>471</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="K55">
-        <v>0.02883506343713956</v>
+        <v>0.02615384615384615</v>
       </c>
       <c r="L55">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="M55">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2872,111 +2764,111 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>842</v>
+        <v>633</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="K56">
-        <v>0.01963534361851332</v>
+        <v>0.02431042543244507</v>
       </c>
       <c r="L56">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="M56">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="N56">
-        <v>0.91</v>
+        <v>0.93</v>
       </c>
       <c r="O56">
-        <v>0.08999999999999997</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P56" t="b">
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>2097</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="K57">
-        <v>0.01447776628748707</v>
+        <v>0.01730103806228374</v>
       </c>
       <c r="L57">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M57">
         <v>15</v>
       </c>
       <c r="N57">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O57">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q57">
-        <v>953</v>
+        <v>852</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="K58">
-        <v>0.01322154143824573</v>
+        <v>0.01129032258064516</v>
       </c>
       <c r="L58">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="M58">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="N58">
-        <v>0.87</v>
+        <v>0.83</v>
       </c>
       <c r="O58">
-        <v>0.13</v>
+        <v>0.17</v>
       </c>
       <c r="P58" t="b">
         <v>1</v>
       </c>
       <c r="Q58">
-        <v>3060</v>
+        <v>3065</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="K59">
-        <v>0.004697776385844034</v>
+        <v>0.006892230576441102</v>
       </c>
       <c r="L59">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="M59">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="N59">
-        <v>0.65</v>
+        <v>0.71</v>
       </c>
       <c r="O59">
-        <v>0.35</v>
+        <v>0.29</v>
       </c>
       <c r="P59" t="b">
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>3178</v>
+        <v>3170</v>
       </c>
     </row>
   </sheetData>
